--- a/Dataset/Authors/POLLIO_or_frg.xlsx
+++ b/Dataset/Authors/POLLIO_or_frg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03230AE-FC5D-44D0-8C25-1FB28F1416C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C3CA4-48D4-47DD-964E-FED3A69284F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{08B06E99-6848-4926-9967-9416F02B9EE6}"/>
   </bookViews>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -564,6 +567,9 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B10">
